--- a/Data/g2.2.xlsx
+++ b/Data/g2.2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,98 +447,114 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.358593669674953</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.171997934385766</v>
+        <v>-8.358593669674953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>16.32004947607151</v>
+        <v>-8.171997934385766</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.558733333178576</v>
+        <v>16.32004947607151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.444450586706099</v>
+        <v>-2.558733333178576</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>-20.85086078655514</v>
+        <v>-9.444450586706099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>31.25955001213649</v>
+        <v>-20.85086078655514</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B9" t="n">
-        <v>-27.3073342584889</v>
+        <v>31.25955001213649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>33.18905326602366</v>
+        <v>-27.3073342584889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B11" t="n">
-        <v>9.187657601719446</v>
+        <v>33.18905326602366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.090991931028102</v>
+        <v>9.187657601719446</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-7.090991931028102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>6.521894003851481</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7.649238083436605</v>
       </c>
     </row>
   </sheetData>
